--- a/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -291,10 +291,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -1810,13 +1810,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>77</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="378">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -779,9 +779,6 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>Nombre Legal de la Organizacion</t>
-  </si>
-  <si>
     <t>Nombre Legal de la Organización</t>
   </si>
   <si>
@@ -806,7 +803,7 @@
     <t>Nombre de Fantasía</t>
   </si>
   <si>
-    <t>Nombre por lo que  popularmente es conocida la Organización y que no corresponde al nombre legal</t>
+    <t>Nombre por lo que popularmente es conocida la Organización y que no corresponde al nombre legal</t>
   </si>
   <si>
     <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.</t>
@@ -889,10 +886,10 @@
     <t>Organization.telecom.value</t>
   </si>
   <si>
-    <t>Dato del contato de la ubicación descrita</t>
-  </si>
-  <si>
-    <t>Valor del contacto como por ejemplo el numero de telefono fijo o de móvil o el email de Organiación</t>
+    <t>Dato del contacto de la ubicación descrita</t>
+  </si>
+  <si>
+    <t>Valor del contacto como por ejemplo el número de teléfono fijo o de móvil o el email de Organización</t>
   </si>
   <si>
     <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
@@ -981,7 +978,7 @@
 </t>
   </si>
   <si>
-    <t>Tipo de dato para agragar la dirección de un paciente</t>
+    <t>Tipo de dato para agregar la dirección</t>
   </si>
   <si>
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
@@ -1113,7 +1110,7 @@
     <t>Detalles de contacto de la Organización</t>
   </si>
   <si>
-    <t>Detalles del contacto de la Organización comunmente el o los mas usados (Ej: Teléfono fijo, móvil, email, etc.)</t>
+    <t>Detalles del contacto de la Organización comúnmente el o los mas usados (Ej: Teléfono fijo, móvil, email, etc.)</t>
   </si>
   <si>
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
@@ -1137,10 +1134,10 @@
     <t>Organization.contact.telecom.value</t>
   </si>
   <si>
-    <t>Dato del contato del paciente descrito</t>
-  </si>
-  <si>
-    <t>Valor del contacto como por ejemplo el numero de telefono fijo o de móvil o el email del Paciente</t>
+    <t>Dato del contacto de la Organización</t>
+  </si>
+  <si>
+    <t>Valor del contacto como por ejemplo el número de teléfono fijo o de móvil o el email del Paciente</t>
   </si>
   <si>
     <t>Organization.contact.telecom.use</t>
@@ -4003,13 +4000,13 @@
         <v>245</v>
       </c>
       <c r="M22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4073,13 +4070,13 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4087,10 +4084,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4116,16 +4113,16 @@
         <v>154</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4174,7 +4171,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4192,7 +4189,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4203,10 +4200,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4229,19 +4226,19 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4290,7 +4287,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4299,19 +4296,19 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4319,10 +4316,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4431,10 +4428,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4545,10 +4542,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4574,10 +4571,10 @@
         <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4607,28 +4604,28 @@
         <v>170</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4637,19 +4634,19 @@
         <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4657,10 +4654,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4686,16 +4683,16 @@
         <v>154</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4744,7 +4741,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4759,10 +4756,10 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>205</v>
@@ -4773,10 +4770,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4802,16 +4799,16 @@
         <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4840,25 +4837,25 @@
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4873,13 +4870,13 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4887,10 +4884,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4913,16 +4910,16 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4972,7 +4969,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5001,10 +4998,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5030,10 +5027,10 @@
         <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5084,7 +5081,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5102,7 +5099,7 @@
         <v>130</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>213</v>
@@ -5113,10 +5110,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5139,19 +5136,19 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5200,7 +5197,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5209,19 +5206,19 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AJ32" t="s" s="2">
+      <c r="AK32" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5229,10 +5226,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5258,14 +5255,14 @@
         <v>215</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5314,7 +5311,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5332,7 +5329,7 @@
         <v>230</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>158</v>
@@ -5343,10 +5340,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5369,19 +5366,19 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5430,7 +5427,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5448,7 +5445,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5459,10 +5456,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5571,10 +5568,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5685,14 +5682,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5714,10 +5711,10 @@
         <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>136</v>
@@ -5772,7 +5769,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5801,10 +5798,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5830,14 +5827,14 @@
         <v>176</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5865,11 +5862,11 @@
         <v>181</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5886,7 +5883,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5904,7 +5901,7 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5915,10 +5912,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5941,17 +5938,17 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6000,7 +5997,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6015,10 +6012,10 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6029,10 +6026,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6055,17 +6052,17 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6114,7 +6111,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6129,10 +6126,10 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6143,10 +6140,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6255,10 +6252,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6369,10 +6366,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6398,10 +6395,10 @@
         <v>107</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6432,25 +6429,25 @@
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6459,19 +6456,19 @@
         <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6479,10 +6476,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6508,16 +6505,16 @@
         <v>154</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="N44" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6566,7 +6563,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6581,10 +6578,10 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>205</v>
@@ -6595,10 +6592,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6624,16 +6621,16 @@
         <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="N45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6662,25 +6659,25 @@
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6695,13 +6692,13 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6709,10 +6706,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6735,16 +6732,16 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6794,7 +6791,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6823,10 +6820,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6852,10 +6849,10 @@
         <v>207</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6906,7 +6903,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6924,7 +6921,7 @@
         <v>130</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>213</v>
@@ -6935,10 +6932,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6961,17 +6958,17 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7020,7 +7017,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7035,10 +7032,10 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7049,10 +7046,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7075,17 +7072,17 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7134,7 +7131,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-OrganizationLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1519,17 +1519,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.0546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.0546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.64453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1538,26 +1538,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.29296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.7734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="32.79296875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="89.40625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="189.36328125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
